--- a/result/summary.xlsx
+++ b/result/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t>モ○ルナ.接種日</t>
   </si>
@@ -40,6 +40,18 @@
     <t>2022-01-26</t>
   </si>
   <si>
+    <t>2019-08-09</t>
+  </si>
+  <si>
+    <t>2019-08-24</t>
+  </si>
+  <si>
+    <t>2019-09-08</t>
+  </si>
+  <si>
+    <t>2019-09-23</t>
+  </si>
+  <si>
     <t>接種</t>
   </si>
   <si>
@@ -50,6 +62,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -407,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,16 +450,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -452,16 +467,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -469,16 +484,84 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/result/summary.xlsx
+++ b/result/summary.xlsx
@@ -14,57 +14,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
-  <si>
-    <t>モ○ルナ.接種日</t>
-  </si>
-  <si>
-    <t>モ○ルナ.状態</t>
-  </si>
-  <si>
-    <t>ファ○ザー.接種日</t>
-  </si>
-  <si>
-    <t>ファ○ザー.状態</t>
-  </si>
-  <si>
-    <t>社員番号</t>
-  </si>
-  <si>
-    <t>2021-12-27</t>
-  </si>
-  <si>
-    <t>2022-01-11</t>
-  </si>
-  <si>
-    <t>2022-01-26</t>
-  </si>
-  <si>
-    <t>2019-08-09</t>
-  </si>
-  <si>
-    <t>2019-08-24</t>
-  </si>
-  <si>
-    <t>2019-09-08</t>
-  </si>
-  <si>
-    <t>2019-09-23</t>
-  </si>
-  <si>
-    <t>接種</t>
-  </si>
-  <si>
-    <t>xxxx-xx-xx</t>
-  </si>
-  <si>
-    <t>未接種</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
+  <si>
+    <t>会員番号</t>
+  </si>
+  <si>
+    <t>名前</t>
+  </si>
+  <si>
+    <t>実施日</t>
+  </si>
+  <si>
+    <t>デッドリフト負荷レベル</t>
+  </si>
+  <si>
+    <t>スクワット負荷レベル</t>
+  </si>
+  <si>
+    <t>ベンチプレス負荷レベル</t>
+  </si>
+  <si>
+    <t>総負荷レベル</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>松村 エリコ</t>
+  </si>
+  <si>
+    <t>須賀 あいこ</t>
+  </si>
+  <si>
+    <t>磯部 優</t>
+  </si>
+  <si>
+    <t>丸山 アイ</t>
+  </si>
+  <si>
+    <t>結城 ワタル</t>
+  </si>
+  <si>
+    <t>初見 景清</t>
+  </si>
+  <si>
+    <t>南雲 かおる</t>
+  </si>
+  <si>
+    <t>村瀬 藤次郎</t>
+  </si>
+  <si>
+    <t>藤山 藤次郎</t>
+  </si>
+  <si>
+    <t>梵 瑠偉</t>
+  </si>
+  <si>
+    <t>2021-06-28</t>
+  </si>
+  <si>
+    <t>2021-07-24</t>
+  </si>
+  <si>
+    <t>2021-07-27</t>
+  </si>
+  <si>
+    <t>2021-08-30</t>
+  </si>
+  <si>
+    <t>2021-09-02</t>
+  </si>
+  <si>
+    <t>2021-09-05</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>2021-01-24</t>
+  </si>
+  <si>
+    <t>2021-01-27</t>
+  </si>
+  <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
+    <t>2021-02-02</t>
+  </si>
+  <si>
+    <t>2021-01-10</t>
+  </si>
+  <si>
+    <t>2021-01-13</t>
+  </si>
+  <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
+    <t>2021-04-25</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>2021-05-01</t>
+  </si>
+  <si>
+    <t>2021-05-04</t>
+  </si>
+  <si>
+    <t>2021-05-13</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>2021-08-25</t>
+  </si>
+  <si>
+    <t>2021-08-28</t>
+  </si>
+  <si>
+    <t>2021-05-28</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
   </si>
 </sst>
 </file>
@@ -422,13 +524,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,124 +546,563 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
         <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
